--- a/biology/Botanique/Rosier_mousseux/Rosier_mousseux.xlsx
+++ b/biology/Botanique/Rosier_mousseux/Rosier_mousseux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les rosiers mousseux, ou rosiers moussus (Rosa ×centifolia forma muscosa), sont des rosiers issus de mutations spontanées de l'espèce Rosa ×centifolia, le rosier cent-feuilles (et peut-être pour certains de Rosa ×damascena)
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Apparus à partir de la fin du XVIe siècle, ils présentent la particularité d'avoir le pédoncule et le calice des fleurs recouverts d'excroissances fines et enchevêtrées formant une sorte de « mousse » surtout visible sur les fleurs en boutons. Les fleurs sont très pleines (ou doubles) comme celles des rosiers à cent-feuilles, Rosa centifolia, formées d'innombrables pétales, de forme générale globuleuse et souvent plus parfumées. Les tiges sont souvent très bien pourvues en aiguillons. 
-Ces mutations sont toujours stériles, et la multiplication végétative se fait par boutures de racines à l'automne[1].
+Ces mutations sont toujours stériles, et la multiplication végétative se fait par boutures de racines à l'automne.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En France, le premier rosier mousseux est signalé à Carcassonne en 1696 et en 1720 plusieurs sont cultivés à Leyde en Hollande. Les rosiers mousseux ont été populaires en France surtout dans la deuxième moitié du XIXe siècle. En 1850, ils sont une cinquantaine et il y en aura jusqu'à deux cents dont beaucoup ont disparu. Mais des créations nouvelles sont encore enregistrées au milieu du XXe siècle[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, le premier rosier mousseux est signalé à Carcassonne en 1696 et en 1720 plusieurs sont cultivés à Leyde en Hollande. Les rosiers mousseux ont été populaires en France surtout dans la deuxième moitié du XIXe siècle. En 1850, ils sont une cinquantaine et il y en aura jusqu'à deux cents dont beaucoup ont disparu. Mais des créations nouvelles sont encore enregistrées au milieu du XXe siècle.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Quelques cultivars célèbres[3]</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>'Alfred de Dalmas', Portemer père 1855, blanc rosé ;
 'À Longs Pédoncules', Moreau-Robert, France 1854, rose ;
